--- a/trunk/TemaPersistens/Relational DB Skema.xlsx
+++ b/trunk/TemaPersistens/Relational DB Skema.xlsx
@@ -265,12 +265,15 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,9 +283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,15 +942,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>328448</xdr:colOff>
+      <xdr:colOff>366346</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>124810</xdr:rowOff>
+      <xdr:rowOff>137948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>428297</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>137948</xdr:rowOff>
+      <xdr:rowOff>139212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -958,9 +958,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="328448" y="6030310"/>
-          <a:ext cx="6491452" cy="13138"/>
+        <a:xfrm flipV="1">
+          <a:off x="366346" y="6043448"/>
+          <a:ext cx="6443701" cy="1264"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -991,15 +991,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>328449</xdr:colOff>
+      <xdr:colOff>359019</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>78828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>367862</xdr:colOff>
+      <xdr:colOff>367863</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>124810</xdr:rowOff>
+      <xdr:rowOff>124558</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1008,8 +1008,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="328449" y="1793328"/>
-          <a:ext cx="39413" cy="4236982"/>
+          <a:off x="359019" y="1793328"/>
+          <a:ext cx="8844" cy="4236730"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2460,10 +2460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,20 +2489,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2528,37 +2531,37 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="8"/>
       <c r="M6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2582,7 +2585,7 @@
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -2590,17 +2593,17 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2620,76 +2623,76 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2700,19 +2703,19 @@
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2738,17 +2741,17 @@
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2767,7 +2770,7 @@
     <mergeCell ref="H19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/trunk/TemaPersistens/Relational DB Skema.xlsx
+++ b/trunk/TemaPersistens/Relational DB Skema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -177,12 +177,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -271,16 +277,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2465,8 +2471,8 @@
   </sheetPr>
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,7 +2485,7 @@
     <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
